--- a/biology/Biochimie/Acylcarnitine/Acylcarnitine.xlsx
+++ b/biology/Biochimie/Acylcarnitine/Acylcarnitine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'acylcarnitine est un ester d'acide gras — formant le résidu acyle — et de carnitine, un zwitterion comprenant un ammonium quaternaire, une fonction alcool et un carboxyle.
 Sa fonction première est de permettre aux acides gras de franchir les membranes mitochondriales pour être dégradés par β-oxydation. Elle est formée par transfert du groupe acyle d'une acyl-CoA sur une molécule de carnitine sous l'action d'une carnitine acyltransférase de la membrane mitochondriale externe (CPTI). L'acylcarnitine peut alors pénétrer dans l'espace intermembranaire mitochondrial à travers une porine et franchir la membrane mitochondriale interne à travers la carnitine-acylcarnitine translocase, qui fonctionne comme un antiport échangeant une molécule de carnitine de la matrice mitochondriale contre une molécule d'acylcarnitine de l'espace intermembranaire.
